--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23233" windowHeight="9583" tabRatio="914" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -67,157 +67,281 @@
     <t>town_6</t>
   </si>
   <si>
+    <t>_MainBase</t>
+  </si>
+  <si>
+    <t>_Military</t>
+  </si>
+  <si>
+    <t>_Economy</t>
+  </si>
+  <si>
+    <t>_defaultBuilding</t>
+  </si>
+  <si>
+    <t>主要序列</t>
+  </si>
+  <si>
+    <t>军事序列</t>
+  </si>
+  <si>
+    <t>经济序列</t>
+  </si>
+  <si>
+    <t>默认建筑</t>
+  </si>
+  <si>
+    <t>Human_MainBase</t>
+  </si>
+  <si>
+    <t>Human_Barracks,Human_Range,Human_Stable</t>
+  </si>
+  <si>
+    <t>Human_Economy</t>
+  </si>
+  <si>
+    <t>10001,11001</t>
+  </si>
+  <si>
+    <t>buildingID</t>
+  </si>
+  <si>
+    <t>buildingType</t>
+  </si>
+  <si>
+    <t>buildingSubType</t>
+  </si>
+  <si>
+    <t>_preBuildingIDs</t>
+  </si>
+  <si>
+    <t>costGold</t>
+  </si>
+  <si>
+    <t>costHour</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>#注释</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>建筑ID
+第1位是种族ID
+第2位是建筑类型
+34位是分类
+5位是建筑等级</t>
+  </si>
+  <si>
+    <t>建筑ID</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>建筑类型</t>
+  </si>
+  <si>
+    <t>建筑二级类型</t>
+  </si>
+  <si>
+    <t>建筑名称</t>
+  </si>
+  <si>
+    <t>对应的主建筑等级</t>
+  </si>
+  <si>
+    <t>花费</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>升级耗时</t>
+  </si>
+  <si>
+    <t>是否启用</t>
+  </si>
+  <si>
     <t>MainBase</t>
   </si>
   <si>
+    <t>2000010001</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>empire_city1</t>
+  </si>
+  <si>
+    <t>主城</t>
+  </si>
+  <si>
+    <t>2000010002</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>empire_city2</t>
+  </si>
+  <si>
+    <t>2000010003</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>empire_city3</t>
+  </si>
+  <si>
+    <t>2000010004</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>empire_city4</t>
+  </si>
+  <si>
+    <t>2000010005</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>empire_city5</t>
+  </si>
+  <si>
+    <t>Human_Barracks</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
     <t>Barracks</t>
   </si>
   <si>
+    <t>2000011001</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>bretonnia_barracks1</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>2000011002</t>
+  </si>
+  <si>
+    <t>bretonnia_barracks2</t>
+  </si>
+  <si>
+    <t>2000011003</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>bretonnia_barracks3</t>
+  </si>
+  <si>
+    <t>2000011004</t>
+  </si>
+  <si>
+    <t>bretonnia_barracks4</t>
+  </si>
+  <si>
+    <t>Human_Range</t>
+  </si>
+  <si>
     <t>Range</t>
   </si>
   <si>
+    <t>2000011011</t>
+  </si>
+  <si>
+    <t>靶场</t>
+  </si>
+  <si>
+    <t>2000011012</t>
+  </si>
+  <si>
+    <t>2000011013</t>
+  </si>
+  <si>
+    <t>Human_Stable</t>
+  </si>
+  <si>
     <t>Stable</t>
   </si>
   <si>
+    <t>2000011021</t>
+  </si>
+  <si>
+    <t>bretonnia_stables1</t>
+  </si>
+  <si>
+    <t>马厩</t>
+  </si>
+  <si>
+    <t>2000011022</t>
+  </si>
+  <si>
+    <t>bretonnia_stables2</t>
+  </si>
+  <si>
+    <t>2000011023</t>
+  </si>
+  <si>
+    <t>bretonnia_stables3</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
     <t>Market</t>
   </si>
   <si>
-    <t>_defaultBuilding</t>
-  </si>
-  <si>
-    <t>主要序列</t>
-  </si>
-  <si>
-    <t>近战序列</t>
-  </si>
-  <si>
-    <t>远程序列</t>
-  </si>
-  <si>
-    <t>骑兵序列</t>
-  </si>
-  <si>
-    <t>市场序列</t>
-  </si>
-  <si>
-    <t>默认建筑</t>
-  </si>
-  <si>
-    <t>1,101</t>
-  </si>
-  <si>
-    <t>buildingID</t>
-  </si>
-  <si>
-    <t>buildingType</t>
-  </si>
-  <si>
-    <t>buildingSubType</t>
-  </si>
-  <si>
-    <t>_name</t>
-  </si>
-  <si>
-    <t>_mainBaseLv</t>
-  </si>
-  <si>
-    <t>_costGold</t>
-  </si>
-  <si>
-    <t>_costHour</t>
-  </si>
-  <si>
-    <t>建筑ID</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>建筑类型</t>
-  </si>
-  <si>
-    <t>建筑二级类型</t>
-  </si>
-  <si>
-    <t>建筑名称</t>
-  </si>
-  <si>
-    <t>对应的主建筑等级</t>
-  </si>
-  <si>
-    <t>花费</t>
-  </si>
-  <si>
-    <t>升级耗时</t>
-  </si>
-  <si>
-    <t>Human_MainBase</t>
-  </si>
-  <si>
-    <t>1672307001,1672307002,1672307003,1672307004,1672307005</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>1000,2000,3000,4000,5000</t>
-  </si>
-  <si>
-    <t>24,48,72,96,120</t>
-  </si>
-  <si>
-    <t>Human_Barracks</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>1672307011,1672307012,1672307013,1672307014,1672307015</t>
-  </si>
-  <si>
-    <t>500,1000,1500,2000,2500</t>
-  </si>
-  <si>
-    <t>6,12,24,36,48</t>
-  </si>
-  <si>
-    <t>Human_Range</t>
-  </si>
-  <si>
-    <t>1672307021,1672307022,1672307023</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>1000,1500,2000</t>
-  </si>
-  <si>
-    <t>12,24,36</t>
-  </si>
-  <si>
-    <t>Human_Stable</t>
-  </si>
-  <si>
-    <t>1672307031,1672307032,1672307033</t>
-  </si>
-  <si>
-    <t>2,4,5</t>
-  </si>
-  <si>
-    <t>1000,2000,2500</t>
-  </si>
-  <si>
-    <t>12,36,48</t>
-  </si>
-  <si>
-    <t>Human_Economy</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>1672307041,1672307042,1672307043,1672307044,1672307045</t>
+    <t>2000012001</t>
+  </si>
+  <si>
+    <t>cathay_gold_yang1</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>2000012002</t>
+  </si>
+  <si>
+    <t>cathay_gold_yang2</t>
+  </si>
+  <si>
+    <t>2000012003</t>
+  </si>
+  <si>
+    <t>cathay_gold_yang3</t>
   </si>
   <si>
     <t>_lv1</t>
@@ -256,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -271,60 +395,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,17 +409,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,7 +440,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,13 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -399,8 +485,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +508,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,67 +547,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,115 +715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,32 +738,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,15 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +780,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -709,8 +822,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +858,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +997,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1231,12 +1367,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="11.5045871559633" customWidth="1"/>
+    <col min="2" max="2" width="11.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1409,23 +1545,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9.37614678899082" style="3" customWidth="1"/>
-    <col min="3" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="17.1284403669725" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1437,80 +1574,56 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>101</v>
-      </c>
-      <c r="D4" s="3">
-        <v>201</v>
-      </c>
-      <c r="E4" s="3">
-        <v>301</v>
-      </c>
-      <c r="F4" s="3">
-        <v>401</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1523,253 +1636,802 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.7522935779817" customWidth="1"/>
-    <col min="6" max="6" width="60.3761467889908" customWidth="1"/>
-    <col min="7" max="7" width="17.1284403669725" customWidth="1"/>
-    <col min="8" max="8" width="29.3761467889908"/>
-    <col min="9" max="9" width="17.1284403669725" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:12">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="3">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="3">
+        <v>72</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="3">
+        <v>96</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="3">
+        <v>120</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
+        <v>11001</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>11002</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11001</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+      <c r="K10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>11003</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="3">
+        <v>11002</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>11004</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11003</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="3">
+        <v>24</v>
+      </c>
+      <c r="K12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" ht="13" customHeight="1" spans="1:12">
+      <c r="A13" s="3">
+        <v>11011</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:12">
+      <c r="A14" s="3">
+        <v>11012</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11011</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:12">
+      <c r="A15" s="3">
+        <v>11013</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11012</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="K15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>11021</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="3">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="L16" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>11022</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11021</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>11023</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11022</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="3">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>12001</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>12002</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="3">
+        <v>12001</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>201</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="I20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12003</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>301</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>401</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
+      <c r="D21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12002</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="3">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1783,13 +2445,13 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="6" width="25.6238532110092" customWidth="1"/>
+    <col min="2" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1797,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1834,70 +2496,70 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" ht="72.6" spans="1:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:6">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" ht="58.1" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:6">
       <c r="A5">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" ht="58.1" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:6">
       <c r="A6">
         <v>301</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>_Economy</t>
   </si>
   <si>
-    <t>_defaultBuilding</t>
+    <t>_DefaultBuilding</t>
   </si>
   <si>
     <t>主要序列</t>
@@ -91,13 +91,10 @@
     <t>默认建筑</t>
   </si>
   <si>
-    <t>Human_MainBase</t>
-  </si>
-  <si>
-    <t>Human_Barracks,Human_Range,Human_Stable</t>
-  </si>
-  <si>
-    <t>Human_Economy</t>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>12001</t>
   </si>
   <si>
     <t>10001,11001</t>
@@ -152,33 +149,36 @@
     <t>建筑名称</t>
   </si>
   <si>
-    <t>对应的主建筑等级</t>
-  </si>
-  <si>
-    <t>花费</t>
+    <t>前置建筑</t>
   </si>
   <si>
     <t>图标</t>
   </si>
   <si>
+    <t>花费金钱</t>
+  </si>
+  <si>
     <t>升级耗时</t>
   </si>
   <si>
     <t>是否启用</t>
   </si>
   <si>
+    <t>Human_MainBase</t>
+  </si>
+  <si>
     <t>MainBase</t>
   </si>
   <si>
     <t>2000010001</t>
   </si>
   <si>
+    <t>empire_city1</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>empire_city1</t>
-  </si>
-  <si>
     <t>主城</t>
   </si>
   <si>
@@ -188,48 +188,48 @@
     <t>10001</t>
   </si>
   <si>
+    <t>empire_city2</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>empire_city2</t>
-  </si>
-  <si>
     <t>2000010003</t>
   </si>
   <si>
     <t>10002</t>
   </si>
   <si>
+    <t>empire_city3</t>
+  </si>
+  <si>
     <t>3000</t>
   </si>
   <si>
-    <t>empire_city3</t>
-  </si>
-  <si>
     <t>2000010004</t>
   </si>
   <si>
     <t>10003</t>
   </si>
   <si>
+    <t>empire_city4</t>
+  </si>
+  <si>
     <t>4000</t>
   </si>
   <si>
-    <t>empire_city4</t>
-  </si>
-  <si>
     <t>2000010005</t>
   </si>
   <si>
     <t>10004</t>
   </si>
   <si>
+    <t>empire_city5</t>
+  </si>
+  <si>
     <t>5000</t>
   </si>
   <si>
-    <t>empire_city5</t>
-  </si>
-  <si>
     <t>Human_Barracks</t>
   </si>
   <si>
@@ -242,33 +242,42 @@
     <t>2000011001</t>
   </si>
   <si>
+    <t>bretonnia_barracks1</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
-    <t>bretonnia_barracks1</t>
-  </si>
-  <si>
     <t>兵营</t>
   </si>
   <si>
     <t>2000011002</t>
   </si>
   <si>
+    <t>10002,11001</t>
+  </si>
+  <si>
     <t>bretonnia_barracks2</t>
   </si>
   <si>
     <t>2000011003</t>
   </si>
   <si>
+    <t>10003,11002</t>
+  </si>
+  <si>
+    <t>bretonnia_barracks3</t>
+  </si>
+  <si>
     <t>1500</t>
   </si>
   <si>
-    <t>bretonnia_barracks3</t>
-  </si>
-  <si>
     <t>2000011004</t>
   </si>
   <si>
+    <t>10004,11003</t>
+  </si>
+  <si>
     <t>bretonnia_barracks4</t>
   </si>
   <si>
@@ -287,9 +296,15 @@
     <t>2000011012</t>
   </si>
   <si>
+    <t>10002,11011</t>
+  </si>
+  <si>
     <t>2000011013</t>
   </si>
   <si>
+    <t>10003,11012</t>
+  </si>
+  <si>
     <t>Human_Stable</t>
   </si>
   <si>
@@ -308,15 +323,24 @@
     <t>2000011022</t>
   </si>
   <si>
+    <t>10002,11021</t>
+  </si>
+  <si>
     <t>bretonnia_stables2</t>
   </si>
   <si>
     <t>2000011023</t>
   </si>
   <si>
+    <t>10003,11022</t>
+  </si>
+  <si>
     <t>bretonnia_stables3</t>
   </si>
   <si>
+    <t>Human_Economy</t>
+  </si>
+  <si>
     <t>Economy</t>
   </si>
   <si>
@@ -335,44 +359,34 @@
     <t>2000012002</t>
   </si>
   <si>
+    <t>10002,12001</t>
+  </si>
+  <si>
     <t>cathay_gold_yang2</t>
   </si>
   <si>
     <t>2000012003</t>
   </si>
   <si>
+    <t>10003,12002</t>
+  </si>
+  <si>
     <t>cathay_gold_yang3</t>
   </si>
   <si>
-    <t>_lv1</t>
-  </si>
-  <si>
-    <t>_lv2</t>
-  </si>
-  <si>
-    <t>_lv3</t>
-  </si>
-  <si>
-    <t>_lv4</t>
-  </si>
-  <si>
-    <t>_lv5</t>
-  </si>
-  <si>
-    <t>建筑1级的时候可招募的士兵</t>
-  </si>
-  <si>
-    <t>{totalNum:5,
-recruitNum:
-{1101:100,
-1201:100
-}}</t>
-  </si>
-  <si>
-    <t>{totalNum:5,
-recruitNum:
-{1101:100
-}}</t>
+    <t>totalNum</t>
+  </si>
+  <si>
+    <t>_recruitNum</t>
+  </si>
+  <si>
+    <t>生成总数</t>
+  </si>
+  <si>
+    <t>招募兵种</t>
+  </si>
+  <si>
+    <t>{1101:100}</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,22 +1010,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,21 +1559,21 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1574,38 +1585,38 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1613,17 +1624,17 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1638,8 +1649,8 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1649,71 +1660,71 @@
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
     <col min="10" max="11" width="17.125" customWidth="1"/>
     <col min="12" max="12" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1722,80 +1733,80 @@
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:12">
       <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="b">
+      <c r="K4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -1803,25 +1814,25 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>10002</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1830,10 +1841,10 @@
       <c r="I5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="b">
+      <c r="K5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -1841,25 +1852,25 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>10003</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1868,10 +1879,10 @@
       <c r="I6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>72</v>
       </c>
-      <c r="K6" s="3" t="b">
+      <c r="K6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -1879,25 +1890,25 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>10004</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1906,10 +1917,10 @@
       <c r="I7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>96</v>
       </c>
-      <c r="K7" s="3" t="b">
+      <c r="K7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -1917,25 +1928,25 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>10005</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1944,10 +1955,10 @@
       <c r="I8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>120</v>
       </c>
-      <c r="K8" s="3" t="b">
+      <c r="K8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -1955,35 +1966,35 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>11001</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>6</v>
       </c>
-      <c r="K9" s="3" t="b">
+      <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -1991,37 +2002,37 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>11002</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3">
-        <v>11001</v>
+      <c r="G10" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="3">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2">
         <v>12</v>
       </c>
-      <c r="K10" s="3" t="b">
+      <c r="K10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -2029,37 +2040,37 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>11003</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="3">
-        <v>11002</v>
+      <c r="F11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="3">
+        <v>82</v>
+      </c>
+      <c r="J11" s="2">
         <v>18</v>
       </c>
-      <c r="K11" s="3" t="b">
+      <c r="K11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -2067,37 +2078,37 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11004</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11003</v>
+      <c r="F12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="3">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2">
         <v>24</v>
       </c>
-      <c r="K12" s="3" t="b">
+      <c r="K12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -2105,333 +2116,333 @@
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:12">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11011</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2">
         <v>12</v>
       </c>
-      <c r="K13" s="3" t="b">
+      <c r="K13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:12">
+      <c r="A14" s="2">
+        <v>11012</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:12">
-      <c r="A14" s="3">
-        <v>11012</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="3">
-        <v>11011</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="F14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2">
         <v>24</v>
       </c>
-      <c r="K14" s="3" t="b">
+      <c r="K14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:12">
+      <c r="A15" s="2">
+        <v>11013</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:12">
-      <c r="A15" s="3">
-        <v>11013</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11012</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="E15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2">
         <v>36</v>
       </c>
-      <c r="K15" s="3" t="b">
+      <c r="K15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>11021</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="3">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2">
         <v>12</v>
       </c>
-      <c r="K16" s="3" t="b">
+      <c r="K16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>11022</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="2">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>11023</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="3">
-        <v>11021</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="3">
+      <c r="F18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2">
+        <v>36</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>12001</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>12002</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="2">
+        <v>12</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>12003</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="2">
         <v>24</v>
       </c>
-      <c r="K17" s="3" t="b">
+      <c r="K21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>11023</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11022</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="3">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>12001</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="3">
-        <v>6</v>
-      </c>
-      <c r="K19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>12002</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="3">
-        <v>12001</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="3">
-        <v>12</v>
-      </c>
-      <c r="K20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12003</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="3">
-        <v>12002</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="3">
-        <v>24</v>
-      </c>
-      <c r="K21" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="L21" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2443,123 +2454,92 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="6" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:6">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:6">
-      <c r="A5">
-        <v>201</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:6">
-      <c r="A6">
-        <v>301</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>11001</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>11002</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>11003</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>11004</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,18 @@
     <t>_preBuildingIDs</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_upgradeBuildingIDs</t>
+    </r>
+  </si>
+  <si>
     <t>costGold</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
   </si>
   <si>
     <t>#注释</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
   <si>
     <t>bool</t>
@@ -152,6 +176,9 @@
     <t>前置建筑</t>
   </si>
   <si>
+    <t>可升级的方向</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -188,6 +215,9 @@
     <t>10001</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>empire_city2</t>
   </si>
   <si>
@@ -200,6 +230,9 @@
     <t>10002</t>
   </si>
   <si>
+    <t>10004</t>
+  </si>
+  <si>
     <t>empire_city3</t>
   </si>
   <si>
@@ -209,7 +242,7 @@
     <t>2000010004</t>
   </si>
   <si>
-    <t>10003</t>
+    <t>10005</t>
   </si>
   <si>
     <t>empire_city4</t>
@@ -219,9 +252,6 @@
   </si>
   <si>
     <t>2000010005</t>
-  </si>
-  <si>
-    <t>10004</t>
   </si>
   <si>
     <t>empire_city5</t>
@@ -1002,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,8 +1051,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1590,7 +1626,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1647,10 +1683,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1661,13 +1697,14 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="11" width="17.125" customWidth="1"/>
-    <col min="12" max="12" width="11.5"/>
+    <col min="8" max="8" width="19.4583333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1689,13 +1726,13 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1704,8 +1741,11 @@
       <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1727,722 +1767,772 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:12">
-      <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>50</v>
+      <c r="H4" s="8">
+        <v>10002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="2">
+        <v>53</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="b">
+      <c r="L4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2">
         <v>48</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="2">
-        <v>48</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="2">
+        <v>64</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2">
         <v>72</v>
       </c>
-      <c r="K6" s="2" t="b">
+      <c r="L6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>10004</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="2">
+        <v>68</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2">
         <v>96</v>
       </c>
-      <c r="K7" s="2" t="b">
+      <c r="L7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>10005</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="2">
+        <v>71</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2">
         <v>120</v>
       </c>
-      <c r="K8" s="2" t="b">
+      <c r="L8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>11001</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>73</v>
+      <c r="H9" s="6">
+        <v>11002</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="2">
+        <v>77</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="K9" s="2" t="b">
+      <c r="L9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>11002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="H10" s="6">
+        <v>11003</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="2">
+        <v>82</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="b">
+      <c r="L10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>11003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6">
+        <v>11004</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="2">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>11004</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="2">
+        <v>89</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="2">
         <v>24</v>
       </c>
-      <c r="K12" s="2" t="b">
+      <c r="L12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" ht="13" customHeight="1" spans="1:12">
+      <c r="M12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="13" customHeight="1" spans="1:13">
       <c r="A13" s="2">
         <v>11011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="H13" s="6">
+        <v>11012</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2">
         <v>12</v>
       </c>
-      <c r="K13" s="2" t="b">
+      <c r="L13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:12">
+      <c r="M13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:13">
       <c r="A14" s="2">
         <v>11012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="2">
+        <v>95</v>
+      </c>
+      <c r="H14" s="6">
+        <v>11013</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="2">
         <v>24</v>
       </c>
-      <c r="K14" s="2" t="b">
+      <c r="L14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:12">
+      <c r="M14" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:13">
       <c r="A15" s="2">
         <v>11013</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2">
+        <v>36</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="2">
-        <v>36</v>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>11021</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>97</v>
+      <c r="H16" s="6">
+        <v>11022</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="2">
+        <v>101</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2">
         <v>12</v>
       </c>
-      <c r="K16" s="2" t="b">
+      <c r="L16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>11022</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="H17" s="6">
+        <v>11023</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="2">
+        <v>105</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2">
         <v>24</v>
       </c>
-      <c r="K17" s="2" t="b">
+      <c r="L17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>11023</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="2">
+        <v>36</v>
+      </c>
+      <c r="L18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="2">
-        <v>36</v>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>12001</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>109</v>
+      <c r="H19" s="6">
+        <v>12002</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="2">
+        <v>113</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="2">
         <v>6</v>
       </c>
-      <c r="K19" s="2" t="b">
+      <c r="L19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>12002</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="H20" s="6">
+        <v>12003</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="2">
+        <v>117</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="2">
         <v>12</v>
       </c>
-      <c r="K20" s="2" t="b">
+      <c r="L20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>12003</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="2">
+        <v>24</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="2">
-        <v>24</v>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2546,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2470,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2489,13 +2579,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2506,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2517,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2528,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2539,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -112,16 +112,7 @@
     <t>_preBuildingIDs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_upgradeBuildingIDs</t>
-    </r>
+    <t>upgradeBuildingID</t>
   </si>
   <si>
     <t>costGold</t>
@@ -1032,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,9 +1047,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1626,7 +1614,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1686,7 +1674,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1704,7 +1692,7 @@
     <col min="13" max="13" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="8">
+      <c r="H4" s="2">
         <v>10002</v>
       </c>
       <c r="I4" s="5" t="s">

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>2000010005</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>empire_city5</t>
@@ -1674,7 +1677,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1995,12 +1998,14 @@
       <c r="G8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2">
         <v>120</v>
@@ -2017,29 +2022,29 @@
         <v>11001</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6">
         <v>11002</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
@@ -2048,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2056,28 +2061,28 @@
         <v>11002</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" s="6">
         <v>11003</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>54</v>
@@ -2089,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2097,31 +2102,31 @@
         <v>11003</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="6">
         <v>11004</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2">
         <v>18</v>
@@ -2130,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2138,26 +2143,28 @@
         <v>11004</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>60</v>
@@ -2169,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:13">
@@ -2177,19 +2184,19 @@
         <v>11011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6">
@@ -2206,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:13">
@@ -2214,29 +2221,29 @@
         <v>11012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="6">
         <v>11013</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="2">
         <v>24</v>
@@ -2245,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:13">
@@ -2253,24 +2260,26 @@
         <v>11013</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="5" t="s">
         <v>60</v>
@@ -2282,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2290,26 +2299,26 @@
         <v>11021</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6">
         <v>11022</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>54</v>
@@ -2321,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2329,31 +2338,31 @@
         <v>11022</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="6">
         <v>11023</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2">
         <v>24</v>
@@ -2362,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2370,26 +2379,28 @@
         <v>11023</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>60</v>
@@ -2401,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2409,29 +2420,29 @@
         <v>12001</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6">
         <v>12002</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" s="2">
         <v>6</v>
@@ -2440,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2448,28 +2459,28 @@
         <v>12002</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="6">
         <v>12003</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>54</v>
@@ -2481,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2489,29 +2500,31 @@
         <v>12003</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I21" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" s="2">
         <v>24</v>
@@ -2520,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2548,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2570,10 +2583,10 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2584,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2595,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2606,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2617,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -314,6 +314,9 @@
     <t>2000011011</t>
   </si>
   <si>
+    <t>wood_elves_forest_nomads1</t>
+  </si>
+  <si>
     <t>靶场</t>
   </si>
   <si>
@@ -323,12 +326,18 @@
     <t>10002,11011</t>
   </si>
   <si>
+    <t>wood_elves_forest_nomads2</t>
+  </si>
+  <si>
     <t>2000011013</t>
   </si>
   <si>
     <t>10003,11012</t>
   </si>
   <si>
+    <t>wood_elves_forest_nomads3</t>
+  </si>
+  <si>
     <t>Human_Stable</t>
   </si>
   <si>
@@ -411,6 +420,24 @@
   </si>
   <si>
     <t>{1101:100}</t>
+  </si>
+  <si>
+    <t>{1101:100,1102:50}</t>
+  </si>
+  <si>
+    <t>{1101:100,1102:50,1103:30,1104:20,1105:5}</t>
+  </si>
+  <si>
+    <t>{1101:100,1102:50,1103:30,1104:20,1105:10}</t>
+  </si>
+  <si>
+    <t>{1201:100}</t>
+  </si>
+  <si>
+    <t>{1201:100,1202:40,1203:10}</t>
+  </si>
+  <si>
+    <t>{1201:100,1202:50,1203:40,1204:20,1205:10}</t>
   </si>
 </sst>
 </file>
@@ -1030,26 +1057,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1469,7 +1496,7 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1489,7 +1516,7 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1509,7 +1536,7 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1529,7 +1556,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1549,7 +1576,7 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1569,7 +1596,7 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1591,28 +1618,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1620,47 +1647,47 @@
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1677,7 +1704,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1687,8 +1714,8 @@
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.4583333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.4583333333333" style="5" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="12" width="17.125" customWidth="1"/>
@@ -1696,844 +1723,850 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" ht="67.5" spans="1:13">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>10001</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
         <v>10002</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="L4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>10002</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>48</v>
       </c>
-      <c r="L5" s="2" t="b">
+      <c r="L5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>10003</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>72</v>
       </c>
-      <c r="L6" s="2" t="b">
+      <c r="L6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>10004</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>96</v>
       </c>
-      <c r="L7" s="2" t="b">
+      <c r="L7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>10005</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>120</v>
       </c>
-      <c r="L8" s="2" t="b">
+      <c r="L8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>11001</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="G9" s="2"/>
+      <c r="H9" s="4">
         <v>11002</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>6</v>
       </c>
-      <c r="L9" s="2" t="b">
+      <c r="L9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>11002</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>11003</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>12</v>
       </c>
-      <c r="L10" s="2" t="b">
+      <c r="L10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>11003</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>11004</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>18</v>
       </c>
-      <c r="L11" s="2" t="b">
+      <c r="L11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11004</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>24</v>
       </c>
-      <c r="L12" s="2" t="b">
+      <c r="L12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11011</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6">
+      <c r="G13" s="2"/>
+      <c r="H13" s="4">
         <v>11012</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>12</v>
       </c>
-      <c r="L13" s="2" t="b">
+      <c r="L13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:13">
+      <c r="A14" s="3">
+        <v>11012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="4">
+        <v>11013</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="3">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:13">
+      <c r="A15" s="3">
+        <v>11013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="3">
+        <v>36</v>
+      </c>
+      <c r="L15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3">
+        <v>11021</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <v>11022</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="3">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:13">
-      <c r="A14" s="2">
-        <v>11012</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="M16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
+        <v>11022</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="6">
-        <v>11013</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5" t="s">
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="4">
+        <v>11023</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K17" s="3">
         <v>24</v>
       </c>
-      <c r="L14" s="2" t="b">
+      <c r="L17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:13">
-      <c r="A15" s="2">
-        <v>11013</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="M17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3">
+        <v>11023</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5" t="s">
+      <c r="I18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K18" s="3">
         <v>36</v>
       </c>
-      <c r="L15" s="2" t="b">
+      <c r="L18" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2">
-        <v>11021</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="M18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3">
+        <v>12001</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <v>11022</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
+        <v>12002</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="3">
+        <v>6</v>
+      </c>
+      <c r="L19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>12002</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12003</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K20" s="3">
         <v>12</v>
       </c>
-      <c r="L16" s="2" t="b">
+      <c r="L20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2">
-        <v>11022</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="M20" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3">
+        <v>12003</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="6">
-        <v>11023</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="D21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K21" s="3">
         <v>24</v>
       </c>
-      <c r="L17" s="2" t="b">
+      <c r="L21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2">
-        <v>11023</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="2">
-        <v>36</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2">
-        <v>12001</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6">
-        <v>12002</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="2">
-        <v>6</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2">
-        <v>12002</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="6">
-        <v>12003</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="M21" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="2">
-        <v>12</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>12003</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="2">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2545,92 +2578,125 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>11001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>126</v>
+      <c r="C4" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>11002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>11003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>11004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>11011</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>11003</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>11004</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
+      <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>11012</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>11013</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>enable</t>
+  </si>
+  <si>
+    <t>initial</t>
   </si>
   <si>
     <t>#注释</t>
@@ -182,6 +185,10 @@
     <t>是否启用</t>
   </si>
   <si>
+    <t>初始建筑
+（建筑序列中的一级建筑）</t>
+  </si>
+  <si>
     <t>Human_MainBase</t>
   </si>
   <si>
@@ -314,6 +321,9 @@
     <t>2000011011</t>
   </si>
   <si>
+    <t>wood_elves_forest_nomads1</t>
+  </si>
+  <si>
     <t>靶场</t>
   </si>
   <si>
@@ -323,12 +333,18 @@
     <t>10002,11011</t>
   </si>
   <si>
+    <t>wood_elves_forest_nomads2</t>
+  </si>
+  <si>
     <t>2000011013</t>
   </si>
   <si>
     <t>10003,11012</t>
   </si>
   <si>
+    <t>wood_elves_forest_nomads3</t>
+  </si>
+  <si>
     <t>Human_Stable</t>
   </si>
   <si>
@@ -411,6 +427,24 @@
   </si>
   <si>
     <t>{1101:100}</t>
+  </si>
+  <si>
+    <t>{1101:100,1102:50}</t>
+  </si>
+  <si>
+    <t>{1101:100,1102:50,1103:30,1104:20,1105:5}</t>
+  </si>
+  <si>
+    <t>{1101:100,1102:50,1103:30,1104:20,1105:10}</t>
+  </si>
+  <si>
+    <t>{1201:100}</t>
+  </si>
+  <si>
+    <t>{1201:100,1202:40,1203:10}</t>
+  </si>
+  <si>
+    <t>{1201:100,1202:50,1203:40,1204:20,1205:10}</t>
   </si>
 </sst>
 </file>
@@ -1030,26 +1064,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1469,7 +1503,7 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1489,7 +1523,7 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1509,7 +1543,7 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1529,7 +1563,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1549,7 +1583,7 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1569,7 +1603,7 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1586,33 +1620,33 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1620,47 +1654,47 @@
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1674,10 +1708,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M5:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1687,853 +1721,922 @@
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.4583333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.4583333333333" style="5" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="11.5"/>
+    <col min="11" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="N1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:14">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <v>10002</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="3">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="3">
+        <v>48</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="3">
+        <v>72</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="3">
+        <v>96</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3">
+        <v>120</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>11001</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4">
+        <v>11002</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>11002</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="4">
+        <v>11003</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="3">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
+        <v>11003</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="4">
+        <v>11004</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="3">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3">
+        <v>11004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="3">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" ht="13" customHeight="1" spans="1:14">
+      <c r="A13" s="3">
+        <v>11011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4">
+        <v>11012</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="3">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:14">
+      <c r="A14" s="3">
+        <v>11012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="4">
+        <v>11013</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="3">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:14">
+      <c r="A15" s="3">
+        <v>11013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="3">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:13">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="L15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3">
+        <v>11021</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2">
-        <v>10002</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <v>11022</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="3">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3">
+        <v>11022</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="4">
+        <v>11023</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="3">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="L17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3">
+        <v>11023</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="3">
+        <v>36</v>
+      </c>
+      <c r="L18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3">
+        <v>12001</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
+        <v>12002</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="3">
+        <v>6</v>
+      </c>
+      <c r="L19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="M19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="3">
+        <v>12002</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12003</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="2">
-        <v>48</v>
-      </c>
-      <c r="L5" s="2" t="b">
+      <c r="K20" s="3">
+        <v>12</v>
+      </c>
+      <c r="L20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="M20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3">
+        <v>12003</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="2">
-        <v>72</v>
-      </c>
-      <c r="L6" s="2" t="b">
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="3">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2">
-        <v>96</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="M21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>11001</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
-        <v>11002</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="2">
-        <v>6</v>
-      </c>
-      <c r="L9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2">
-        <v>11002</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="6">
-        <v>11003</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2">
-        <v>11003</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="6">
-        <v>11004</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2">
-        <v>11004</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="2">
-        <v>24</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" ht="13" customHeight="1" spans="1:13">
-      <c r="A13" s="2">
-        <v>11011</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6">
-        <v>11012</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="2">
-        <v>12</v>
-      </c>
-      <c r="L13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:13">
-      <c r="A14" s="2">
-        <v>11012</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="6">
-        <v>11013</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="2">
-        <v>24</v>
-      </c>
-      <c r="L14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:13">
-      <c r="A15" s="2">
-        <v>11013</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="2">
-        <v>36</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2">
-        <v>11021</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <v>11022</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="2">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2">
-        <v>11022</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="6">
-        <v>11023</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="2">
-        <v>24</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2">
-        <v>11023</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="2">
-        <v>36</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2">
-        <v>12001</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6">
-        <v>12002</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="2">
-        <v>6</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2">
-        <v>12002</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="6">
-        <v>12003</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="2">
-        <v>12</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>12003</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="2">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2545,92 +2648,125 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>11001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>126</v>
+      <c r="C4" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>11002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>11003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>11004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>11011</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>11003</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>11004</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>11012</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>11013</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
   <si>
     <t>ID</t>
   </si>
@@ -67,16 +67,19 @@
     <t>town_6</t>
   </si>
   <si>
-    <t>_MainBase</t>
-  </si>
-  <si>
-    <t>_Military</t>
-  </si>
-  <si>
-    <t>_Economy</t>
-  </si>
-  <si>
-    <t>_DefaultBuilding</t>
+    <t>_mainBase</t>
+  </si>
+  <si>
+    <t>_military</t>
+  </si>
+  <si>
+    <t>_economy</t>
+  </si>
+  <si>
+    <t>_defaultBuilding</t>
+  </si>
+  <si>
+    <t>_initial Building</t>
   </si>
   <si>
     <t>主要序列</t>
@@ -88,7 +91,10 @@
     <t>经济序列</t>
   </si>
   <si>
-    <t>默认建筑</t>
+    <t>默认被建造的建筑</t>
+  </si>
+  <si>
+    <t>初始可显示的建筑</t>
   </si>
   <si>
     <t>11001</t>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>10001,11001</t>
+  </si>
+  <si>
+    <t>10001,11001,11011,11021,12001</t>
   </si>
   <si>
     <t>buildingID</t>
@@ -1053,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,9 +1070,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1496,7 +1502,7 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1516,7 +1522,7 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1536,7 +1542,7 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1556,7 +1562,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1576,7 +1582,7 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1596,7 +1602,7 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1610,85 +1616,98 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1703,8 +1722,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1714,8 +1733,8 @@
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.4583333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.4583333333333" style="4" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="12" width="17.125" customWidth="1"/>
@@ -1723,48 +1742,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1785,8 +1804,8 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -1794,779 +1813,779 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" ht="67.5" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
+      <c r="A3" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>10002</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="3">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="1">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="3">
-        <v>48</v>
-      </c>
-      <c r="L5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="3">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1">
         <v>72</v>
       </c>
-      <c r="L6" s="3" t="b">
+      <c r="L6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="1">
+        <v>96</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="3">
-        <v>96</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="3">
+        <v>76</v>
+      </c>
+      <c r="K8" s="1">
         <v>120</v>
       </c>
-      <c r="L8" s="3" t="b">
+      <c r="L8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>11001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3">
+        <v>11002</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>11002</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4">
-        <v>11002</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="3">
-        <v>6</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>11002</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="4">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3">
         <v>11003</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="3">
-        <v>12</v>
-      </c>
-      <c r="L10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>11003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="4">
+        <v>88</v>
+      </c>
+      <c r="H11" s="3">
         <v>11004</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="3">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="b">
+      <c r="L11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>11004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="3">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1">
         <v>24</v>
       </c>
-      <c r="L12" s="3" t="b">
+      <c r="L12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:13">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>11012</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:13">
+      <c r="A14" s="1">
+        <v>11012</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="3">
-        <v>12</v>
-      </c>
-      <c r="L13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:13">
-      <c r="A14" s="3">
-        <v>11012</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>11013</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="1">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="3">
-        <v>24</v>
-      </c>
-      <c r="L14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:13">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>11013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="3">
+        <v>63</v>
+      </c>
+      <c r="K15" s="1">
         <v>36</v>
       </c>
-      <c r="L15" s="3" t="b">
+      <c r="L15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>11021</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>11022</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>11022</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="3">
-        <v>12</v>
-      </c>
-      <c r="L16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3">
-        <v>11022</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="4">
+        <v>111</v>
+      </c>
+      <c r="H17" s="3">
         <v>11023</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="3">
-        <v>24</v>
-      </c>
-      <c r="L17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>11023</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="3">
+        <v>63</v>
+      </c>
+      <c r="K18" s="1">
         <v>36</v>
       </c>
-      <c r="L18" s="3" t="b">
+      <c r="L18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>12001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3">
+        <v>12002</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>12002</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4">
-        <v>12002</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="3">
-        <v>6</v>
-      </c>
-      <c r="L19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3">
-        <v>12002</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="4">
+        <v>123</v>
+      </c>
+      <c r="H20" s="3">
         <v>12003</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="3">
-        <v>12</v>
-      </c>
-      <c r="L20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>12003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="3">
+        <v>90</v>
+      </c>
+      <c r="K21" s="1">
         <v>24</v>
       </c>
-      <c r="L21" s="3" t="b">
+      <c r="L21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2594,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2613,57 +2632,57 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>11001</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>129</v>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>11002</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>130</v>
+      <c r="C5" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>11003</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>131</v>
+      <c r="C6" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>11004</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2674,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2685,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2696,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -79,7 +79,7 @@
     <t>_defaultBuilding</t>
   </si>
   <si>
-    <t>_initial Building</t>
+    <t>_initial_Building</t>
   </si>
   <si>
     <t>主要序列</t>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -103,7 +103,7 @@
     <t>12001</t>
   </si>
   <si>
-    <t>10001,11001</t>
+    <t>10001,11001,12001</t>
   </si>
   <si>
     <t>10001,11001,11011,11021,12001</t>
@@ -1619,17 +1619,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="32.625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
-    <sheet name="race" sheetId="2" r:id="rId2"/>
-    <sheet name="building" sheetId="4" r:id="rId3"/>
-    <sheet name="recruitDaily" sheetId="5" r:id="rId4"/>
+    <sheet name="building" sheetId="4" r:id="rId2"/>
+    <sheet name="recruitDaily" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -65,48 +64,6 @@
   </si>
   <si>
     <t>town_6</t>
-  </si>
-  <si>
-    <t>_mainBase</t>
-  </si>
-  <si>
-    <t>_military</t>
-  </si>
-  <si>
-    <t>_economy</t>
-  </si>
-  <si>
-    <t>_defaultBuilding</t>
-  </si>
-  <si>
-    <t>_initial_Building</t>
-  </si>
-  <si>
-    <t>主要序列</t>
-  </si>
-  <si>
-    <t>军事序列</t>
-  </si>
-  <si>
-    <t>经济序列</t>
-  </si>
-  <si>
-    <t>默认被建造的建筑</t>
-  </si>
-  <si>
-    <t>初始可显示的建筑</t>
-  </si>
-  <si>
-    <t>11001</t>
-  </si>
-  <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>10001,11001,12001</t>
-  </si>
-  <si>
-    <t>10001,11001,11011,11021,12001</t>
   </si>
   <si>
     <t>buildingID</t>
@@ -1062,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,9 +1040,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1437,8 +1391,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1514,10 +1468,10 @@
         <v>1672306602</v>
       </c>
       <c r="C5">
-        <v>-190</v>
+        <v>-19</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1537,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1554,10 +1508,10 @@
         <v>1672306604</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1574,10 +1528,10 @@
         <v>1672306605</v>
       </c>
       <c r="C8">
-        <v>-150</v>
+        <v>-15</v>
       </c>
       <c r="D8">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1594,10 +1548,10 @@
         <v>1672306606</v>
       </c>
       <c r="C9">
-        <v>-180</v>
+        <v>-18</v>
       </c>
       <c r="D9">
-        <v>-180</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1616,113 +1570,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="32.625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1745,40 +1596,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1804,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -1816,46 +1667,46 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" ht="67.5" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -1864,29 +1715,29 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1">
         <v>10002</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1">
         <v>24</v>
@@ -1895,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1903,31 +1754,31 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1">
         <v>48</v>
@@ -1936,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1944,31 +1795,31 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K6" s="1">
         <v>72</v>
@@ -1977,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1985,31 +1836,31 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K7" s="1">
         <v>96</v>
@@ -2018,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2026,31 +1877,31 @@
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K8" s="1">
         <v>120</v>
@@ -2059,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2067,29 +1918,29 @@
         <v>11001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3">
         <v>11002</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
@@ -2098,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2106,31 +1957,31 @@
         <v>11002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3">
         <v>11003</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1">
         <v>12</v>
@@ -2139,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2147,31 +1998,31 @@
         <v>11003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H11" s="3">
         <v>11004</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K11" s="1">
         <v>18</v>
@@ -2180,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2188,31 +2039,31 @@
         <v>11004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1">
         <v>24</v>
@@ -2221,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:13">
@@ -2229,38 +2080,38 @@
         <v>11011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3">
         <v>11012</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:13">
@@ -2268,40 +2119,40 @@
         <v>11012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3">
         <v>11013</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:13">
@@ -2309,40 +2160,40 @@
         <v>11013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K15" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2350,29 +2201,29 @@
         <v>11021</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3">
         <v>11022</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K16" s="1">
         <v>12</v>
@@ -2381,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2389,31 +2240,31 @@
         <v>11022</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H17" s="3">
         <v>11023</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1">
         <v>24</v>
@@ -2422,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2430,31 +2281,31 @@
         <v>11023</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K18" s="1">
         <v>36</v>
@@ -2463,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2471,29 +2322,29 @@
         <v>12001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3">
         <v>12002</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K19" s="1">
         <v>6</v>
@@ -2502,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2510,31 +2361,31 @@
         <v>12002</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3">
         <v>12003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K20" s="1">
         <v>12</v>
@@ -2543,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2551,31 +2402,31 @@
         <v>12003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K21" s="1">
         <v>24</v>
@@ -2584,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C10"/>
@@ -2612,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2631,13 +2482,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2648,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2659,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2670,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2681,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2692,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2703,7 +2554,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2714,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,12 @@
     <t>raceType</t>
   </si>
   <si>
+    <t>tradeCaravan_num</t>
+  </si>
+  <si>
+    <t>tradeCaravan_gold</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -45,6 +51,12 @@
     <t>float</t>
   </si>
   <si>
+    <t>商队数量</t>
+  </si>
+  <si>
+    <t>商队初始资金</t>
+  </si>
+  <si>
     <t>town_1</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
   </si>
   <si>
     <t>#注释</t>
+  </si>
+  <si>
+    <t>dailySalary</t>
   </si>
   <si>
     <r>
@@ -146,6 +161,9 @@
   </si>
   <si>
     <t>是否启用</t>
+  </si>
+  <si>
+    <t>每日工资</t>
   </si>
   <si>
     <t>Human_MainBase</t>
@@ -1019,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1055,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1389,18 +1410,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11.5083333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1419,28 +1442,48 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="3" spans="7:8">
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1454,13 +1497,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1474,13 +1523,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1494,13 +1549,19 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1514,13 +1575,19 @@
         <v>-3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1534,13 +1601,19 @@
         <v>-10</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1554,10 +1627,16 @@
         <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1570,10 +1649,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1589,155 +1668,165 @@
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="12" width="17.125" customWidth="1"/>
     <col min="13" max="13" width="11.5"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:13">
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1">
         <v>10002</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1">
         <v>24</v>
@@ -1746,39 +1835,42 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1">
         <v>48</v>
@@ -1787,39 +1879,42 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1">
         <v>72</v>
@@ -1828,39 +1923,42 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1">
         <v>96</v>
@@ -1869,39 +1967,42 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1">
         <v>120</v>
@@ -1910,37 +2011,40 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>11001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3">
         <v>11002</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
@@ -1949,39 +2053,42 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>75</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>11002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3">
         <v>11003</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1">
         <v>12</v>
@@ -1990,39 +2097,42 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>11003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3">
         <v>11004</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1">
         <v>18</v>
@@ -2031,39 +2141,42 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>11004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1">
         <v>24</v>
@@ -2072,37 +2185,40 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" ht="13" customHeight="1" spans="1:13">
+        <v>75</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="13" customHeight="1" spans="1:14">
       <c r="A13" s="1">
         <v>11011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3">
         <v>11012</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K13" s="1">
         <v>6</v>
@@ -2111,39 +2227,42 @@
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="1">
         <v>11012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H14" s="3">
         <v>11013</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
@@ -2152,39 +2271,42 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:14">
       <c r="A15" s="1">
         <v>11013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1">
         <v>18</v>
@@ -2193,37 +2315,40 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>11021</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3">
         <v>11022</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K16" s="1">
         <v>12</v>
@@ -2232,39 +2357,42 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>101</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>11022</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3">
         <v>11023</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1">
         <v>24</v>
@@ -2273,39 +2401,42 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>101</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>11023</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1">
         <v>36</v>
@@ -2314,37 +2445,40 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>101</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>12001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3">
         <v>12002</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1">
         <v>6</v>
@@ -2353,39 +2487,42 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>113</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>12002</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3">
         <v>12003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K20" s="1">
         <v>12</v>
@@ -2394,39 +2531,42 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>113</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>12003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K21" s="1">
         <v>24</v>
@@ -2435,7 +2575,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="N21">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2463,32 +2606,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2499,7 +2642,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2510,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2521,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2532,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2543,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2554,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2565,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -60,22 +60,37 @@
     <t>town_1</t>
   </si>
   <si>
-    <t>Human</t>
+    <t>1</t>
   </si>
   <si>
     <t>town_2</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>town_3</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>town_4</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>town_5</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>town_6</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>buildingID</t>
@@ -167,6 +182,9 @@
   </si>
   <si>
     <t>Human_MainBase</t>
+  </si>
+  <si>
+    <t>Human</t>
   </si>
   <si>
     <t>MainBase</t>
@@ -1412,8 +1430,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1526,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -1549,10 +1567,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -1575,10 +1593,10 @@
         <v>-3</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -1601,10 +1619,10 @@
         <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1627,10 +1645,10 @@
         <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -1651,8 +1669,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1676,43 +1694,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1738,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1750,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
@@ -1759,44 +1777,44 @@
     </row>
     <row r="3" ht="67.5" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1804,29 +1822,29 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1">
         <v>10002</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1">
         <v>24</v>
@@ -1835,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1846,31 +1864,31 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1">
         <v>48</v>
@@ -1879,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1890,31 +1908,31 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1">
         <v>72</v>
@@ -1923,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1934,31 +1952,31 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1">
         <v>96</v>
@@ -1967,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1978,31 +1996,31 @@
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1">
         <v>120</v>
@@ -2011,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2022,29 +2040,29 @@
         <v>11001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3">
         <v>11002</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
@@ -2053,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2064,31 +2082,31 @@
         <v>11002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H10" s="3">
         <v>11003</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1">
         <v>12</v>
@@ -2097,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2108,31 +2126,31 @@
         <v>11003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H11" s="3">
         <v>11004</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K11" s="1">
         <v>18</v>
@@ -2141,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2152,31 +2170,31 @@
         <v>11004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1">
         <v>24</v>
@@ -2185,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2196,29 +2214,29 @@
         <v>11011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3">
         <v>11012</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K13" s="1">
         <v>6</v>
@@ -2227,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2238,31 +2256,31 @@
         <v>11012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H14" s="3">
         <v>11013</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
@@ -2271,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2282,31 +2300,31 @@
         <v>11013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1">
         <v>18</v>
@@ -2315,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2326,29 +2344,29 @@
         <v>11021</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3">
         <v>11022</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K16" s="1">
         <v>12</v>
@@ -2357,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2368,31 +2386,31 @@
         <v>11022</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H17" s="3">
         <v>11023</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K17" s="1">
         <v>24</v>
@@ -2401,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2412,31 +2430,31 @@
         <v>11023</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K18" s="1">
         <v>36</v>
@@ -2445,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2456,29 +2474,29 @@
         <v>12001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3">
         <v>12002</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1">
         <v>6</v>
@@ -2487,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N19">
         <v>50</v>
@@ -2498,31 +2516,31 @@
         <v>12002</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H20" s="3">
         <v>12003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K20" s="1">
         <v>12</v>
@@ -2531,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N20">
         <v>100</v>
@@ -2542,31 +2560,31 @@
         <v>12003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K21" s="1">
         <v>24</v>
@@ -2575,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>150</v>
@@ -2606,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2625,13 +2643,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2642,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2653,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2664,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2675,7 +2693,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2686,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2697,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2708,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="139">
   <si>
     <t>ID</t>
   </si>
@@ -33,67 +33,73 @@
     <t>icon</t>
   </si>
   <si>
+    <t>factionID</t>
+  </si>
+  <si>
+    <t>tradeCaravan_num</t>
+  </si>
+  <si>
+    <t>tradeCaravan_gold</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>种族ID</t>
+  </si>
+  <si>
+    <t>商队数量</t>
+  </si>
+  <si>
+    <t>商队初始资金</t>
+  </si>
+  <si>
+    <t>town_1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>town_2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>town_3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>town_4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>town_5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>town_6</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>buildingID</t>
+  </si>
+  <si>
     <t>raceType</t>
-  </si>
-  <si>
-    <t>tradeCaravan_num</t>
-  </si>
-  <si>
-    <t>tradeCaravan_gold</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>商队数量</t>
-  </si>
-  <si>
-    <t>商队初始资金</t>
-  </si>
-  <si>
-    <t>town_1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>town_2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>town_3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>town_4</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>town_5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>town_6</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>buildingID</t>
   </si>
   <si>
     <t>buildingType</t>
@@ -1055,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,9 +1079,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1431,12 +1434,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
   </cols>
@@ -1460,10 +1464,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1484,21 +1488,24 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="7:8">
-      <c r="G3" s="6" t="s">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1515,15 +1522,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6">
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1541,15 +1548,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1567,15 +1574,15 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1593,15 +1600,15 @@
         <v>-3</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1619,15 +1626,15 @@
         <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6">
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1645,15 +1652,15 @@
         <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6">
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1694,43 +1701,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1756,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1768,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
@@ -1777,44 +1784,44 @@
     </row>
     <row r="3" ht="67.5" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1822,29 +1829,29 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1">
         <v>10002</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1">
         <v>24</v>
@@ -1853,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1864,31 +1871,31 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1">
         <v>48</v>
@@ -1897,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1908,31 +1915,31 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1">
         <v>72</v>
@@ -1941,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1952,31 +1959,31 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" s="1">
         <v>96</v>
@@ -1985,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1996,31 +2003,31 @@
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="1">
         <v>120</v>
@@ -2029,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2040,29 +2047,29 @@
         <v>11001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3">
         <v>11002</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
@@ -2071,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2082,31 +2089,31 @@
         <v>11002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" s="3">
         <v>11003</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" s="1">
         <v>12</v>
@@ -2115,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2126,31 +2133,31 @@
         <v>11003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" s="3">
         <v>11004</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1">
         <v>18</v>
@@ -2159,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2170,31 +2177,31 @@
         <v>11004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1">
         <v>24</v>
@@ -2203,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2214,29 +2221,29 @@
         <v>11011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3">
         <v>11012</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1">
         <v>6</v>
@@ -2245,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2256,31 +2263,31 @@
         <v>11012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>11013</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
@@ -2289,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2300,31 +2307,31 @@
         <v>11013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1">
         <v>18</v>
@@ -2333,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2344,29 +2351,29 @@
         <v>11021</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3">
         <v>11022</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16" s="1">
         <v>12</v>
@@ -2375,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2386,31 +2393,31 @@
         <v>11022</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3">
         <v>11023</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="1">
         <v>24</v>
@@ -2419,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2430,31 +2437,31 @@
         <v>11023</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K18" s="1">
         <v>36</v>
@@ -2463,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2474,29 +2481,29 @@
         <v>12001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3">
         <v>12002</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1">
         <v>6</v>
@@ -2505,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>50</v>
@@ -2516,31 +2523,31 @@
         <v>12002</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="3">
         <v>12003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1">
         <v>12</v>
@@ -2549,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N20">
         <v>100</v>
@@ -2560,31 +2567,31 @@
         <v>12003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K21" s="1">
         <v>24</v>
@@ -2593,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N21">
         <v>150</v>
@@ -2624,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2643,13 +2650,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2660,7 +2667,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2671,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2682,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2693,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2704,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2715,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2726,7 +2733,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -51,7 +51,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>种族ID</t>
+    <t>派系ID</t>
   </si>
   <si>
     <t>商队数量</t>
@@ -63,37 +63,37 @@
     <t>town_1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>11</t>
   </si>
   <si>
     <t>town_2</t>
   </si>
   <si>
-    <t>2</t>
+    <t>12</t>
   </si>
   <si>
     <t>town_3</t>
   </si>
   <si>
-    <t>3</t>
+    <t>21</t>
   </si>
   <si>
     <t>town_4</t>
   </si>
   <si>
-    <t>4</t>
+    <t>31</t>
   </si>
   <si>
     <t>town_5</t>
   </si>
   <si>
-    <t>5</t>
+    <t>41</t>
   </si>
   <si>
     <t>town_6</t>
   </si>
   <si>
-    <t>6</t>
+    <t>51</t>
   </si>
   <si>
     <t>buildingID</t>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Product/StaticData/City.xlsx
+++ b/Product/StaticData/City.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="613" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1676,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2617,8 +2617,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
